--- a/dataframes.xlsx
+++ b/dataframes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Curso R\Clase_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03A299D-ED46-4E1B-97C2-0B023D558513}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D8061-40D6-4387-BF5F-858624674D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iris" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="21">
   <si>
     <t>Sepal.Length</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -921,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:G153"/>
+  <dimension ref="C3:G154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,28 +950,28 @@
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D4">
-        <v>3.5</v>
-      </c>
-      <c r="E4">
-        <v>1.4</v>
-      </c>
-      <c r="F4">
-        <v>0.2</v>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5">
-        <v>4.9000000000000004</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E5">
         <v>1.4</v>
@@ -982,13 +985,13 @@
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D6">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F6">
         <v>0.2</v>
@@ -999,13 +1002,13 @@
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7">
-        <v>4.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="D7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -1016,13 +1019,13 @@
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D8">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="E8">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F8">
         <v>0.2</v>
@@ -1033,16 +1036,16 @@
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="E9">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="F9">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1050,16 +1053,16 @@
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10">
-        <v>4.5999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="D10">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="E10">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1067,16 +1070,16 @@
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D11">
         <v>3.4</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1084,13 +1087,13 @@
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="E12">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F12">
         <v>0.2</v>
@@ -1101,16 +1104,16 @@
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D13">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="E13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1118,16 +1121,16 @@
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14">
-        <v>5.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D14">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="E14">
         <v>1.5</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1135,13 +1138,13 @@
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="D15">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="E15">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F15">
         <v>0.2</v>
@@ -1155,13 +1158,13 @@
         <v>4.8</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E16">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1169,13 +1172,13 @@
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F17">
         <v>0.1</v>
@@ -1186,16 +1189,16 @@
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1203,16 +1206,16 @@
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D19">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F19">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1220,13 +1223,13 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="D20">
-        <v>3.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E20">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F20">
         <v>0.4</v>
@@ -1237,16 +1240,16 @@
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="D21">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="E21">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G21" t="s">
         <v>5</v>
@@ -1254,13 +1257,13 @@
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D22">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E22">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="F22">
         <v>0.3</v>
@@ -1271,13 +1274,13 @@
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>5.0999999999999996</v>
+        <v>5.7</v>
       </c>
       <c r="D23">
         <v>3.8</v>
       </c>
       <c r="E23">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F23">
         <v>0.3</v>
@@ -1288,16 +1291,16 @@
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D24">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="E24">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="F24">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1305,16 +1308,16 @@
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C25">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="D25">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="E25">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F25">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -1322,16 +1325,16 @@
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D26">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -1339,16 +1342,16 @@
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>5.0999999999999996</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E27">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
@@ -1356,16 +1359,16 @@
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D28">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E28">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F28">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
@@ -1373,13 +1376,13 @@
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="E29">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="F29">
         <v>0.2</v>
@@ -1393,13 +1396,13 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>1.6</v>
       </c>
       <c r="F30">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -1407,16 +1410,16 @@
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E31">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F31">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -1427,10 +1430,10 @@
         <v>5.2</v>
       </c>
       <c r="D32">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="E32">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F32">
         <v>0.2</v>
@@ -1441,13 +1444,13 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="D33">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E33">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F33">
         <v>0.2</v>
@@ -1458,10 +1461,10 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="D34">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E34">
         <v>1.6</v>
@@ -1475,16 +1478,16 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="D35">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="E35">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="F35">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
@@ -1492,16 +1495,16 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D36">
-        <v>4.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="E36">
         <v>1.5</v>
       </c>
       <c r="F36">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
@@ -1509,16 +1512,16 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="D37">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E37">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="s">
         <v>5</v>
@@ -1526,13 +1529,13 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38">
-        <v>4.9000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="D38">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="E38">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F38">
         <v>0.2</v>
@@ -1543,13 +1546,13 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39">
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D39">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E39">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F39">
         <v>0.2</v>
@@ -1560,13 +1563,13 @@
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C40">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="E40">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F40">
         <v>0.2</v>
@@ -1577,16 +1580,16 @@
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C41">
-        <v>4.9000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="D41">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="E41">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F41">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
@@ -1594,16 +1597,16 @@
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C42">
-        <v>4.4000000000000004</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E42">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F42">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="s">
         <v>5</v>
@@ -1611,13 +1614,13 @@
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43">
-        <v>5.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D43">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E43">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="F43">
         <v>0.2</v>
@@ -1628,16 +1631,16 @@
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D44">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="E44">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="F44">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
@@ -1645,10 +1648,10 @@
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D45">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="E45">
         <v>1.3</v>
@@ -1662,16 +1665,16 @@
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="D46">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E46">
         <v>1.3</v>
       </c>
       <c r="F46">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G46" t="s">
         <v>5</v>
@@ -1679,16 +1682,16 @@
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D47">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="E47">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="F47">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="s">
         <v>5</v>
@@ -1696,16 +1699,16 @@
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="E48">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="F48">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G48" t="s">
         <v>5</v>
@@ -1713,16 +1716,16 @@
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>4.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="E49">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="F49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
@@ -1730,16 +1733,16 @@
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>5.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="D50">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F50">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G50" t="s">
         <v>5</v>
@@ -1747,13 +1750,13 @@
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D51">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="E51">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F51">
         <v>0.2</v>
@@ -1764,13 +1767,13 @@
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52">
-        <v>5.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D52">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="E52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F52">
         <v>0.2</v>
@@ -1781,13 +1784,13 @@
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D53">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="E53">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="F53">
         <v>0.2</v>
@@ -1798,33 +1801,33 @@
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D54">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E54">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="F54">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D55">
         <v>3.2</v>
       </c>
       <c r="E55">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F55">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G55" t="s">
         <v>6</v>
@@ -1832,13 +1835,13 @@
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D56">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="E56">
-        <v>4.9000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="F56">
         <v>1.5</v>
@@ -1849,16 +1852,16 @@
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>5.5</v>
+        <v>6.9</v>
       </c>
       <c r="D57">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F57">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G57" t="s">
         <v>6</v>
@@ -1866,16 +1869,16 @@
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="D58">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E58">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="F58">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G58" t="s">
         <v>6</v>
@@ -1883,16 +1886,16 @@
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="D59">
         <v>2.8</v>
       </c>
       <c r="E59">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F59">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G59" t="s">
         <v>6</v>
@@ -1900,16 +1903,16 @@
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C60">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="D60">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E60">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F60">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="G60" t="s">
         <v>6</v>
@@ -1917,16 +1920,16 @@
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>4.9000000000000004</v>
+        <v>6.3</v>
       </c>
       <c r="D61">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="E61">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="G61" t="s">
         <v>6</v>
@@ -1934,16 +1937,16 @@
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>6.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D62">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="E62">
-        <v>4.5999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="F62">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G62" t="s">
         <v>6</v>
@@ -1951,16 +1954,16 @@
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="D63">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="E63">
-        <v>3.9</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F63">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G63" t="s">
         <v>6</v>
@@ -1968,16 +1971,16 @@
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="E64">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="G64" t="s">
         <v>6</v>
@@ -1985,16 +1988,16 @@
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C65">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="F65">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
         <v>6</v>
@@ -2002,16 +2005,16 @@
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="D66">
-        <v>2.2000000000000002</v>
+        <v>3</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G66" t="s">
         <v>6</v>
@@ -2019,16 +2022,16 @@
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="D67">
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E67">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="F67">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G67" t="s">
         <v>6</v>
@@ -2036,16 +2039,16 @@
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C68">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="D68">
         <v>2.9</v>
       </c>
       <c r="E68">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="F68">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G68" t="s">
         <v>6</v>
@@ -2053,16 +2056,16 @@
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C69">
-        <v>6.7</v>
+        <v>5.6</v>
       </c>
       <c r="D69">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="E69">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="F69">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G69" t="s">
         <v>6</v>
@@ -2070,16 +2073,16 @@
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C70">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E70">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F70">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="G70" t="s">
         <v>6</v>
@@ -2087,16 +2090,16 @@
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C71">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="D71">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>4.0999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G71" t="s">
         <v>6</v>
@@ -2104,16 +2107,16 @@
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="D72">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="E72">
-        <v>4.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F72">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="G72" t="s">
         <v>6</v>
@@ -2121,16 +2124,16 @@
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C73">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="D73">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E73">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="F73">
-        <v>1.1000000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="G73" t="s">
         <v>6</v>
@@ -2138,16 +2141,16 @@
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="D74">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="E74">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="F74">
-        <v>1.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G74" t="s">
         <v>6</v>
@@ -2155,16 +2158,16 @@
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C75">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="D75">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="F75">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="G75" t="s">
         <v>6</v>
@@ -2172,16 +2175,16 @@
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C76">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="D76">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="E76">
-        <v>4.9000000000000004</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G76" t="s">
         <v>6</v>
@@ -2189,16 +2192,16 @@
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C77">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D77">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="E77">
-        <v>4.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F77">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="G77" t="s">
         <v>6</v>
@@ -2206,16 +2209,16 @@
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C78">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="D78">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="E78">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="F78">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G78" t="s">
         <v>6</v>
@@ -2223,16 +2226,16 @@
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C79">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E79">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="F79">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G79" t="s">
         <v>6</v>
@@ -2240,13 +2243,13 @@
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C80">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="D80">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>4.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F80">
         <v>1.4</v>
@@ -2257,16 +2260,16 @@
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C81">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="F81">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="G81" t="s">
         <v>6</v>
@@ -2274,16 +2277,16 @@
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C82">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="D82">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E82">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="G82" t="s">
         <v>6</v>
@@ -2291,16 +2294,16 @@
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C83">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="E83">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G83" t="s">
         <v>6</v>
@@ -2308,16 +2311,16 @@
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C84">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="D84">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="E84">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="F84">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G84" t="s">
         <v>6</v>
@@ -2331,10 +2334,10 @@
         <v>2.4</v>
       </c>
       <c r="E85">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G85" t="s">
         <v>6</v>
@@ -2342,16 +2345,16 @@
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C86">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="D86">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="E86">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="F86">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="s">
         <v>6</v>
@@ -2359,16 +2362,16 @@
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C87">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="D87">
         <v>2.7</v>
       </c>
       <c r="E87">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="F87">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G87" t="s">
         <v>6</v>
@@ -2376,16 +2379,16 @@
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C88">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E88">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F88">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G88" t="s">
         <v>6</v>
@@ -2393,16 +2396,16 @@
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C89">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="D89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>4.5</v>
       </c>
       <c r="F89">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="G89" t="s">
         <v>6</v>
@@ -2410,16 +2413,16 @@
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C90">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E90">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="F90">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="G90" t="s">
         <v>6</v>
@@ -2427,16 +2430,16 @@
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C91">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D91">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="E91">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="F91">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="G91" t="s">
         <v>6</v>
@@ -2444,13 +2447,13 @@
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C92">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E92">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F92">
         <v>1.3</v>
@@ -2461,13 +2464,13 @@
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C93">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D93">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F93">
         <v>1.3</v>
@@ -2481,13 +2484,13 @@
         <v>5.5</v>
       </c>
       <c r="D94">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="E94">
-        <v>4.4000000000000004</v>
+        <v>4</v>
       </c>
       <c r="F94">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G94" t="s">
         <v>6</v>
@@ -2495,16 +2498,16 @@
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C95">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E95">
-        <v>4.5999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F95">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G95" t="s">
         <v>6</v>
@@ -2512,16 +2515,16 @@
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C96">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D96">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F96">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="G96" t="s">
         <v>6</v>
@@ -2529,16 +2532,16 @@
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C97">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="D97">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
       <c r="E97">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G97" t="s">
         <v>6</v>
@@ -2546,16 +2549,16 @@
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C98">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E98">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="F98">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="G98" t="s">
         <v>6</v>
@@ -2563,16 +2566,16 @@
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C99">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E99">
         <v>4.2</v>
       </c>
       <c r="F99">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G99" t="s">
         <v>6</v>
@@ -2583,13 +2586,13 @@
         <v>5.7</v>
       </c>
       <c r="D100">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E100">
         <v>4.2</v>
       </c>
       <c r="F100">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="G100" t="s">
         <v>6</v>
@@ -2597,13 +2600,13 @@
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C101">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="D101">
         <v>2.9</v>
       </c>
       <c r="E101">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="F101">
         <v>1.3</v>
@@ -2614,16 +2617,16 @@
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C102">
-        <v>5.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="D102">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="F102">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="G102" t="s">
         <v>6</v>
@@ -2631,16 +2634,16 @@
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C103">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D103">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="E103">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="F103">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G103" t="s">
         <v>6</v>
@@ -2648,33 +2651,33 @@
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C104">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="D104">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="E104">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F104">
+        <v>1.3</v>
+      </c>
+      <c r="G104" t="s">
         <v>6</v>
-      </c>
-      <c r="F104">
-        <v>2.5</v>
-      </c>
-      <c r="G104" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C105">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D105">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="E105">
-        <v>5.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="F105">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G105" t="s">
         <v>7</v>
@@ -2682,16 +2685,16 @@
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C106">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E106">
-        <v>5.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F106">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G106" t="s">
         <v>7</v>
@@ -2699,16 +2702,16 @@
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C107">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="D107">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="F107">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G107" t="s">
         <v>7</v>
@@ -2716,16 +2719,16 @@
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C108">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E108">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="F108">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="G108" t="s">
         <v>7</v>
@@ -2733,16 +2736,16 @@
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C109">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="D109">
         <v>3</v>
       </c>
       <c r="E109">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="F109">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G109" t="s">
         <v>7</v>
@@ -2750,16 +2753,16 @@
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C110">
-        <v>4.9000000000000004</v>
+        <v>7.6</v>
       </c>
       <c r="D110">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E110">
-        <v>4.5</v>
+        <v>6.6</v>
       </c>
       <c r="F110">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="G110" t="s">
         <v>7</v>
@@ -2767,16 +2770,16 @@
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C111">
-        <v>7.3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D111">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="E111">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="F111">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="G111" t="s">
         <v>7</v>
@@ -2784,13 +2787,13 @@
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C112">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="D112">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E112">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="F112">
         <v>1.8</v>
@@ -2801,16 +2804,16 @@
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C113">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="D113">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="E113">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="F113">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="G113" t="s">
         <v>7</v>
@@ -2818,16 +2821,16 @@
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C114">
-        <v>6.5</v>
+        <v>7.2</v>
       </c>
       <c r="D114">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="E114">
-        <v>5.0999999999999996</v>
+        <v>6.1</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G114" t="s">
         <v>7</v>
@@ -2835,16 +2838,16 @@
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C115">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="D115">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="E115">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G115" t="s">
         <v>7</v>
@@ -2852,16 +2855,16 @@
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C116">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="E116">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F116">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="G116" t="s">
         <v>7</v>
@@ -2869,16 +2872,16 @@
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C117">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="D117">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G117" t="s">
         <v>7</v>
@@ -2886,16 +2889,16 @@
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C118">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="D118">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="E118">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="F118">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G118" t="s">
         <v>7</v>
@@ -2903,16 +2906,16 @@
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C119">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="D119">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="E119">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F119">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="G119" t="s">
         <v>7</v>
@@ -2920,16 +2923,16 @@
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C120">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E120">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F120">
-        <v>1.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G120" t="s">
         <v>7</v>
@@ -2937,16 +2940,16 @@
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C121">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="D121">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="F121">
-        <v>2.2000000000000002</v>
+        <v>1.8</v>
       </c>
       <c r="G121" t="s">
         <v>7</v>
@@ -2957,13 +2960,13 @@
         <v>7.7</v>
       </c>
       <c r="D122">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="E122">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="F122">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G122" t="s">
         <v>7</v>
@@ -2971,16 +2974,16 @@
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C123">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="D123">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="F123">
-        <v>1.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G123" t="s">
         <v>7</v>
@@ -2988,16 +2991,16 @@
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C124">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="D124">
-        <v>3.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E124">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="F124">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="G124" t="s">
         <v>7</v>
@@ -3005,16 +3008,16 @@
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C125">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="D125">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E125">
-        <v>4.9000000000000004</v>
+        <v>5.7</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G125" t="s">
         <v>7</v>
@@ -3022,13 +3025,13 @@
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C126">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="D126">
         <v>2.8</v>
       </c>
       <c r="E126">
-        <v>6.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F126">
         <v>2</v>
@@ -3039,16 +3042,16 @@
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C127">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="D127">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="E127">
-        <v>4.9000000000000004</v>
+        <v>6.7</v>
       </c>
       <c r="F127">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G127" t="s">
         <v>7</v>
@@ -3056,16 +3059,16 @@
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C128">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="D128">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="E128">
-        <v>5.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F128">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G128" t="s">
         <v>7</v>
@@ -3073,16 +3076,16 @@
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C129">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="D129">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E129">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="F129">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="G129" t="s">
         <v>7</v>
@@ -3090,13 +3093,13 @@
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C130">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="D130">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="E130">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="F130">
         <v>1.8</v>
@@ -3107,13 +3110,13 @@
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C131">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E131">
-        <v>4.9000000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="F131">
         <v>1.8</v>
@@ -3124,16 +3127,16 @@
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C132">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="D132">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E132">
-        <v>5.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F132">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G132" t="s">
         <v>7</v>
@@ -3141,16 +3144,16 @@
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C133">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="E133">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="F133">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="G133" t="s">
         <v>7</v>
@@ -3158,16 +3161,16 @@
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C134">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="D134">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="E134">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="F134">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="G134" t="s">
         <v>7</v>
@@ -3175,16 +3178,16 @@
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C135">
-        <v>7.9</v>
+        <v>7.4</v>
       </c>
       <c r="D135">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="E135">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G135" t="s">
         <v>7</v>
@@ -3192,16 +3195,16 @@
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C136">
+        <v>7.9</v>
+      </c>
+      <c r="D136">
+        <v>3.8</v>
+      </c>
+      <c r="E136">
         <v>6.4</v>
       </c>
-      <c r="D136">
-        <v>2.8</v>
-      </c>
-      <c r="E136">
-        <v>5.6</v>
-      </c>
       <c r="F136">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
       <c r="G136" t="s">
         <v>7</v>
@@ -3209,16 +3212,16 @@
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C137">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D137">
         <v>2.8</v>
       </c>
       <c r="E137">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="F137">
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G137" t="s">
         <v>7</v>
@@ -3226,16 +3229,16 @@
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C138">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D138">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="E138">
-        <v>5.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F138">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="G138" t="s">
         <v>7</v>
@@ -3243,16 +3246,16 @@
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C139">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="D139">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="E139">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="F139">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="G139" t="s">
         <v>7</v>
@@ -3260,16 +3263,16 @@
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C140">
-        <v>6.3</v>
+        <v>7.7</v>
       </c>
       <c r="D140">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E140">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="F140">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G140" t="s">
         <v>7</v>
@@ -3277,16 +3280,16 @@
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C141">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D141">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E141">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="F141">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="G141" t="s">
         <v>7</v>
@@ -3294,13 +3297,13 @@
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C142">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="E142">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="F142">
         <v>1.8</v>
@@ -3311,16 +3314,16 @@
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C143">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="D143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="E143">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="F143">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G143" t="s">
         <v>7</v>
@@ -3328,16 +3331,16 @@
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C144">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="D144">
         <v>3.1</v>
       </c>
       <c r="E144">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="F144">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="G144" t="s">
         <v>7</v>
@@ -3345,16 +3348,16 @@
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C145">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="D145">
         <v>3.1</v>
       </c>
       <c r="E145">
-        <v>5.0999999999999996</v>
+        <v>5.6</v>
       </c>
       <c r="F145">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="G145" t="s">
         <v>7</v>
@@ -3362,16 +3365,16 @@
     </row>
     <row r="146" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C146">
-        <v>5.8</v>
+        <v>6.9</v>
       </c>
       <c r="D146">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="E146">
         <v>5.0999999999999996</v>
       </c>
       <c r="F146">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G146" t="s">
         <v>7</v>
@@ -3379,16 +3382,16 @@
     </row>
     <row r="147" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C147">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="D147">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="E147">
-        <v>5.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F147">
-        <v>2.2999999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="G147" t="s">
         <v>7</v>
@@ -3396,16 +3399,16 @@
     </row>
     <row r="148" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C148">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D148">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E148">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="F148">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G148" t="s">
         <v>7</v>
@@ -3416,13 +3419,13 @@
         <v>6.7</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="E149">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="F149">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="G149" t="s">
         <v>7</v>
@@ -3430,16 +3433,16 @@
     </row>
     <row r="150" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C150">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="D150">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F150">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G150" t="s">
         <v>7</v>
@@ -3447,16 +3450,16 @@
     </row>
     <row r="151" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C151">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D151">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E151">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="G151" t="s">
         <v>7</v>
@@ -3464,16 +3467,16 @@
     </row>
     <row r="152" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C152">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="D152">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E152">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="F152">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="G152" t="s">
         <v>7</v>
@@ -3481,18 +3484,35 @@
     </row>
     <row r="153" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C153">
+        <v>6.2</v>
+      </c>
+      <c r="D153">
+        <v>3.4</v>
+      </c>
+      <c r="E153">
+        <v>5.4</v>
+      </c>
+      <c r="F153">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C154">
         <v>5.9</v>
       </c>
-      <c r="D153">
-        <v>3</v>
-      </c>
-      <c r="E153">
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F153">
+      <c r="F154">
         <v>1.8</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G154" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3505,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8D6D77-F2C8-41CD-A451-44DEE5C93305}">
   <dimension ref="B2:L701"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
